--- a/src/models/baselines/XGBoost/results/synthetic/centrality/in-degree/metrics.xlsx
+++ b/src/models/baselines/XGBoost/results/synthetic/centrality/in-degree/metrics.xlsx
@@ -504,7 +504,7 @@
         <v>0.9949494949494949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9992347719620446</v>
+        <v>0.9990434649525559</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9967860422405876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -526,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>0.9949494949494949</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999617385981022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -574,7 +574,7 @@
         <v>0.9848484848484849</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9986991123354759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9992347719620446</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9959595959595958</v>
+        <v>0.9964646464646464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9959595959595958</v>
+        <v>0.9964646464646464</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9993916437098255</v>
+        <v>0.9999043464952557</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005216139186811329</v>
+        <v>0.004791329788133909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005216139186811329</v>
+        <v>0.004791329788133909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001027049239978856</v>
+        <v>0.000302482941170053</v>
       </c>
     </row>
   </sheetData>
